--- a/src/assets/static/example.xlsx
+++ b/src/assets/static/example.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_workspace\intelinvest_repo\intelinvest_frontend\src\assets\static\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8CFA003-78FB-4E17-9512-E0487B4DEFC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="22035" windowHeight="11565"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="27770" windowHeight="17080"/>
   </bookViews>
   <sheets>
-    <sheet name="trades_portfolio_10368" sheetId="1" r:id="rId1"/>
+    <sheet name="example" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
   <si>
     <t>TYPE</t>
   </si>
@@ -43,15 +49,15 @@
     <t>CURRENCY</t>
   </si>
   <si>
+    <t>FEE_CURRENCY</t>
+  </si>
+  <si>
     <t>NOTE</t>
   </si>
   <si>
     <t>LINK_ID</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>MONEYDEPOSIT</t>
   </si>
   <si>
@@ -134,12 +140,30 @@
   </si>
   <si>
     <t>Получил проценты по займу</t>
+  </si>
+  <si>
+    <t>Списание денег за сделку по Альфа-Капитал Баланс</t>
+  </si>
+  <si>
+    <t>ASSET_BUY</t>
+  </si>
+  <si>
+    <t>RU000A0JRXP9</t>
+  </si>
+  <si>
+    <t>Покупка ПИФа</t>
+  </si>
+  <si>
+    <t>ASSET_DIVIDEND</t>
+  </si>
+  <si>
+    <t>Выплата дохода по ПИФу</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,10 +182,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Cambria"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="major"/>
@@ -211,7 +234,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -614,51 +637,51 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -690,6 +713,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -705,44 +731,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -770,14 +796,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -805,6 +848,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -816,189 +876,159 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="56.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1049,11 +1079,11 @@
       <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1075,14 +1105,14 @@
       <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>17</v>
       </c>
-      <c r="K3">
-        <v>34875803</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>83182771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1095,14 +1125,14 @@
       <c r="I4" t="s">
         <v>13</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>19</v>
       </c>
-      <c r="K4">
-        <v>34875803</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>83182771</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1115,14 +1145,14 @@
       <c r="I5" t="s">
         <v>13</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>20</v>
       </c>
-      <c r="K5">
-        <v>7944377</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>46470441</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1135,14 +1165,14 @@
       <c r="I6" t="s">
         <v>13</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>22</v>
       </c>
-      <c r="K6">
-        <v>7944377</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>46470441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1170,14 +1200,14 @@
       <c r="I7" t="s">
         <v>13</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>25</v>
       </c>
-      <c r="K7">
-        <v>47837960</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>61408547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1190,14 +1220,14 @@
       <c r="I8" t="s">
         <v>13</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>26</v>
       </c>
-      <c r="K8">
-        <v>47837960</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>61408547</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1216,14 +1246,14 @@
       <c r="I9" t="s">
         <v>13</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>28</v>
       </c>
-      <c r="K9">
-        <v>67167107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>10122000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1236,14 +1266,14 @@
       <c r="I10" t="s">
         <v>13</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>29</v>
       </c>
-      <c r="K10">
-        <v>67167107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>10122000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1256,11 +1286,11 @@
       <c r="I11" t="s">
         <v>13</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1273,14 +1303,14 @@
       <c r="I12" t="s">
         <v>13</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>31</v>
       </c>
-      <c r="K12">
-        <v>43638068</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>10642036</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1299,14 +1329,14 @@
       <c r="I13" t="s">
         <v>13</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>33</v>
       </c>
-      <c r="K13">
-        <v>43638068</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>10642036</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1319,14 +1349,14 @@
       <c r="I14" t="s">
         <v>13</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>34</v>
       </c>
-      <c r="K14">
-        <v>19775028</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>81946183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1345,14 +1375,14 @@
       <c r="I15" t="s">
         <v>13</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>36</v>
       </c>
-      <c r="K15">
-        <v>19775028</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>81946183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1365,14 +1395,14 @@
       <c r="I16" t="s">
         <v>13</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>37</v>
       </c>
-      <c r="K16">
-        <v>88885628</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>68896446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1385,11 +1415,89 @@
       <c r="I17" t="s">
         <v>13</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>39</v>
       </c>
-      <c r="K17">
-        <v>88885628</v>
+      <c r="L17">
+        <v>68896446</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
+        <v>43791.470138888886</v>
+      </c>
+      <c r="E18">
+        <v>3161.9181119999998</v>
+      </c>
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18">
+        <v>74462865</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="1">
+        <v>43791.470138888886</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19">
+        <v>1.2345600000000001</v>
+      </c>
+      <c r="E19">
+        <v>2551.4499999999998</v>
+      </c>
+      <c r="F19">
+        <v>12</v>
+      </c>
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19">
+        <v>74462865</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="1">
+        <v>43791.470138888886</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20">
+        <v>1.2345600000000001</v>
+      </c>
+      <c r="E20">
+        <v>500</v>
+      </c>
+      <c r="I20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
